--- a/biology/Zoologie/Ara_de_Coulon/Ara_de_Coulon.xlsx
+++ b/biology/Zoologie/Ara_de_Coulon/Ara_de_Coulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primolius couloni
 L'Ara de Coulon (Primolius couloni) est une espèce de perroquets de la sous-famille des Psittacinae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau présente une coloration assez proche de l'ara macavouanne. Il s'en distingue cependant par une taille plus modeste (environ 41 cm), un plumage vert plus foncé, des cercles oculaires foncés, des iris jaunes et la tête bleue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau présente une coloration assez proche de l'ara macavouanne. Il s'en distingue cependant par une taille plus modeste (environ 41 cm), un plumage vert plus foncé, des cercles oculaires foncés, des iris jaunes et la tête bleue.
 L’ara de Coulon est de petite taille, il mesure environ 41 cm et pèse en moyenne 250 g et a un plumage à tendance verte et une tête bleue.
 Auparavant classé dans le genre Propyrrhura, l'ara de Coulon est désormais classé dans le genre Primolius regroupant tous les aras dits à tête bleue.
 Il se reconnaît à sa tête bleue beaucoup plus foncée que celle des autres aras de son genre et par ses ailes totalement vertes.
@@ -555,7 +569,9 @@
           <t>Habitat naturel.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit principalement en Amérique du Sud dans une aire comprise entre l'est du Pérou et l'ouest du Brésil entre 150 et 1 550 m d'altitude.
 Ils apprécient principalement les forêts tropicales humides, avec de grands arbres et préfèrent rester le long des rivières mais ils ont aussi été observés dans des marais de palmier Moriche et aux périphéries des villes.
@@ -588,7 +604,9 @@
           <t>Domesticité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aras de Coulon apprécient d'être logés dans une volière de 2 m de long, 90 cm de large et 2 m de haut au minimum.
 Comme tous les aras, l'Ara de Coulon demande quelques perchoirs afin de pouvoir se reposer.
@@ -621,7 +639,9 @@
           <t>Longévité.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces petits aras peuvent vivre en moyenne jusqu'à l'âge de 40 ans.
 </t>
@@ -652,7 +672,9 @@
           <t>Comportement.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux vivent généralement en couple ou en groupe et peuvent devenir agressifs en période de reproduction.
 Leurs puissants cris résonnent dans les forêts exotiques.
@@ -684,7 +706,9 @@
           <t>Alimentation.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aras de Coulon se nourrissent principalement de graines, de baies, de plantes, d'insectes et de larves d'insectes.
 </t>
@@ -715,7 +739,9 @@
           <t>Reproduction.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond en moyenne entre 3 et 4 œufs en avril qu'elle couvera pendant 26 jours.
 </t>
@@ -746,7 +772,9 @@
           <t>Statut à l'état naturel.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se reproduit volontiers en captivité, ce qui devrait pérenniser l'espèce.
 Il y a peu, cet ara était considéré comme sans danger, mais une révision en 2006 par BirdLife International a montré qu'il serait rare avec une population totale fortement diminuée à seulement 1000 à 2500 individus. Il a été reclassé comme “menacé” en 2007 dans la liste rouge de l'UICN.
